--- a/test_prices.xlsx
+++ b/test_prices.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\TEST_TASKS\technesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A972BA-4200-4368-911A-8662B13868E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE959CC-96B3-4396-B2ED-DCBA9D0E24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="title">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="url">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="xpath">Sheet1!$C$2:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Wireless Headphones 1</t>
   </si>
@@ -33,9 +38,6 @@
     <t>mock://mock_eldorado.html</t>
   </si>
   <si>
-    <t>//span[@class="PriceBlock_buyBoxPrice__4QNQp PriceBlock_buyBoxPriceStyled__cVwpq" and @data-pc="offer_price"]</t>
-  </si>
-  <si>
     <t>Wireless Headphones 2</t>
   </si>
   <si>
@@ -61,13 +63,52 @@
   </si>
   <si>
     <t>Wireless Headphones 10</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//span[@id="price1"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price2"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price3"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price4"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price5"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price6"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price7"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price8"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price9"]</t>
+  </si>
+  <si>
+    <t>//span[@id="price10"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +116,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C3C43"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -92,17 +146,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C3C43"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C3C43"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C3C43"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C3C43"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3C3C43"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -113,6 +453,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D2B884A-CB8F-407F-97D8-561D6E9DBD8F}" name="Таблица2" displayName="Таблица2" ref="A1:C11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5" headerRowBorderDxfId="1">
+  <autoFilter ref="A1:C11" xr:uid="{8D2B884A-CB8F-407F-97D8-561D6E9DBD8F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{16A0280E-9CFC-4F02-A27E-CEC1FB53E256}" name="title" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{228A913F-BD6E-4C78-9A83-DD055C3D95EB}" name="url" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{42AC44DB-50BA-49B4-8CAA-8FFD25620B3E}" name="xpath" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,117 +743,131 @@
     <col min="3" max="3" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>